--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Location</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Registration_Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Session_ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +484,8 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +508,8 @@
           <t>a</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -518,6 +532,8 @@
           <t>sa</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -538,6 +554,64 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>pk</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03211017677</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>subhan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-08-11 20:18:44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>session_1754925478</t>
         </is>
       </c>
     </row>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,70 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0987654321</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sd@sk.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:02:45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>session_1754928140</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0987654432</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sad@sk.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:11:53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>session_1754928656</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0987654321</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sub@han.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:19:58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>session_1754929168</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +711,30 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09092345</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,170 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>098765432</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dfas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsfa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>dfs</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dasf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sdfa</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>fddss</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dfs</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adfs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ew</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>dfs</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dw</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,6 +899,50 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>daf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,6 +943,30 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,6 +967,54 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>subahn</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>subhan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(skipped)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
